--- a/dataset_mesin.xlsx
+++ b/dataset_mesin.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mucha\PycharmProjects\OptimizationAlgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AA48E0-98B0-4C65-AB97-3014524E7A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35169B95-516C-4016-BAF9-BD40A8EA7E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{72179652-849D-4B66-8D92-934C9D2F7176}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{72179652-849D-4B66-8D92-934C9D2F7176}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Q</t>
   </si>
@@ -46,6 +47,54 @@
   </si>
   <si>
     <t>Pinj</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>Variabel</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>SUM ERROR</t>
+  </si>
+  <si>
+    <t>25.38065223827716,</t>
+  </si>
+  <si>
+    <t>27.014833291200848,</t>
+  </si>
+  <si>
+    <t>28.754234166241922,</t>
+  </si>
+  <si>
+    <t>29.009897069547335,</t>
+  </si>
+  <si>
+    <t>30.877753880052165,</t>
+  </si>
+  <si>
+    <t>32.865876166031974,</t>
+  </si>
+  <si>
+    <t>29.632885371606147,</t>
+  </si>
+  <si>
+    <t>31.54085445621094,</t>
+  </si>
+  <si>
+    <t>33.57167172053757,</t>
+  </si>
+  <si>
+    <t>32.17867473673075,</t>
+  </si>
+  <si>
+    <t>34.25055925999976,</t>
+  </si>
+  <si>
+    <t>Prediksi Q</t>
   </si>
 </sst>
 </file>
@@ -107,10 +156,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -126,6 +176,2945 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$17:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>23.765581111645901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.9563830323026</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.5755867180598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.921403285213898</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.401649065867201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.3491577705406</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.799800212159901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.397980857878299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.479258536288398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.727372199891001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.450090026757898</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.672625431668799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$J$17:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF28-4E04-8011-1A4923AF27FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1129690991"/>
+        <c:axId val="1129692655"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1129690991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1129692655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1129692655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1129690991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$17:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>28.6142</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.612712847507318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.4123241826588</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.251638166011301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.868714249218819</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.927218716349522</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.504830708893561</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.140848510046425</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.58979033854753</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.200739356813983</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.59680009101378</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.113649937961526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6DA2-4890-9C7C-E9C2C1D687AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$17:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25.380652238277101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.014833291200802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.754234166241901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.0098970695473</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.877753880052101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.865876166031903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.6328853716061</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.540854456210901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.571671720537502</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.178674736730699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.250559259999697</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.455845966947301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6DA2-4890-9C7C-E9C2C1D687AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1633880863"/>
+        <c:axId val="1633881279"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1633880863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1633881279"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1633881279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1633880863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>perbandingan data</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>  Actual dan Prediksi</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$17:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>28.6142</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.612712847507318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.4123241826588</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.251638166011301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.868714249218819</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.927218716349522</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.504830708893561</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.140848510046425</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.58979033854753</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.200739356813983</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.59680009101378</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.113649937961526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6283-4544-B837-AA711B3B21D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prediksi Q</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$17:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25.380652238277101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.014833291200802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.754234166241901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.0098970695473</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.877753880052101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.865876166031903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.6328853716061</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.540854456210901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.571671720537502</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.178674736730699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.250559259999697</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.455845966947301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6283-4544-B837-AA711B3B21D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1651105743"/>
+        <c:axId val="1651107407"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1651105743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1651107407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1651107407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1651105743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE1AA9B0-1AE3-4969-8938-F9A221D88ED5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4414C587-EC7E-4270-B81B-BE8FF81861D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1122B32F-FFF1-436F-A76D-B4FF54E94C02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,8 +3416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8370CDD2-85C5-4757-9FA3-B472FBFA11BB}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,4 +3607,535 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4854A82-87D8-4AB7-A41B-527E89F63398}">
+  <dimension ref="A1:Z28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>1.62087611</v>
+      </c>
+      <c r="I1">
+        <v>0.15389470999999999</v>
+      </c>
+      <c r="J1">
+        <v>0.46457496999999998</v>
+      </c>
+      <c r="K1">
+        <v>-0.24612717000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>80</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D2">
+        <v>28.6142</v>
+      </c>
+      <c r="E2" s="3">
+        <v>25.380652238277101</v>
+      </c>
+      <c r="F2">
+        <f>ABS(D2-E2)</f>
+        <v>3.2335477617228996</v>
+      </c>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2">
+        <v>36.455845966947301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>120</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>29.612712847507318</v>
+      </c>
+      <c r="E3" s="3">
+        <v>27.014833291200802</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F13" si="0">ABS(D3-E3)</f>
+        <v>2.5978795563065162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>180</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>30.4123241826588</v>
+      </c>
+      <c r="E4" s="3">
+        <v>28.754234166241901</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1.6580900164168995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>80</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>29.251638166011301</v>
+      </c>
+      <c r="E5" s="3">
+        <v>29.0098970695473</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.24174109646400055</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>120</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>29.868714249218819</v>
+      </c>
+      <c r="E6" s="3">
+        <v>30.877753880052101</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1.0090396308332821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>180</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>32.927218716349522</v>
+      </c>
+      <c r="E7" s="3">
+        <v>32.865876166031903</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>6.1342550317618816E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>80</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.122</v>
+      </c>
+      <c r="D8" s="1">
+        <v>31.504830708893561</v>
+      </c>
+      <c r="E8" s="3">
+        <v>29.6328853716061</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1.8719453372874604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>120</v>
+      </c>
+      <c r="B9">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.122</v>
+      </c>
+      <c r="D9" s="1">
+        <v>32.140848510046425</v>
+      </c>
+      <c r="E9" s="3">
+        <v>31.540854456210901</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.59999405383552329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>180</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.122</v>
+      </c>
+      <c r="D10" s="1">
+        <v>32.58979033854753</v>
+      </c>
+      <c r="E10" s="3">
+        <v>33.571671720537502</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.98188138198997166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>80</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D11" s="1">
+        <v>29.200739356813983</v>
+      </c>
+      <c r="E11" s="3">
+        <v>32.178674736730699</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>2.9779353799167154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>120</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>29.59680009101378</v>
+      </c>
+      <c r="E12" s="3">
+        <v>34.250559259999697</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>4.6537591689859177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>180</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D13" s="1">
+        <v>35.113649937961526</v>
+      </c>
+      <c r="E13" s="3">
+        <v>36.455845966947301</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1.3421960289857751</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <f>SUM(F2:F13)</f>
+        <v>21.22935196306258</v>
+      </c>
+      <c r="G14">
+        <f>AVERAGE(F2:F13)</f>
+        <v>1.7691126635885484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>28.6142</v>
+      </c>
+      <c r="F17">
+        <v>25.380652238277101</v>
+      </c>
+      <c r="I17">
+        <v>23.765581111645901</v>
+      </c>
+      <c r="J17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E18" s="1">
+        <v>29.612712847507318</v>
+      </c>
+      <c r="F18">
+        <v>27.014833291200802</v>
+      </c>
+      <c r="I18">
+        <v>26.9563830323026</v>
+      </c>
+      <c r="J18">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E19" s="1">
+        <v>30.4123241826588</v>
+      </c>
+      <c r="F19">
+        <v>28.754234166241901</v>
+      </c>
+      <c r="I19">
+        <v>30.5755867180598</v>
+      </c>
+      <c r="J19">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E20" s="1">
+        <v>29.251638166011301</v>
+      </c>
+      <c r="F20">
+        <v>29.0098970695473</v>
+      </c>
+      <c r="I20">
+        <v>25.921403285213898</v>
+      </c>
+      <c r="J20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E21" s="1">
+        <v>29.868714249218819</v>
+      </c>
+      <c r="F21">
+        <v>30.877753880052101</v>
+      </c>
+      <c r="I21">
+        <v>29.401649065867201</v>
+      </c>
+      <c r="J21">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E22" s="1">
+        <v>32.927218716349522</v>
+      </c>
+      <c r="F22">
+        <v>32.865876166031903</v>
+      </c>
+      <c r="I22">
+        <v>33.3491577705406</v>
+      </c>
+      <c r="J22">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E23" s="1">
+        <v>31.504830708893561</v>
+      </c>
+      <c r="F23">
+        <v>29.6328853716061</v>
+      </c>
+      <c r="I23">
+        <v>26.799800212159901</v>
+      </c>
+      <c r="J23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E24" s="1">
+        <v>32.140848510046425</v>
+      </c>
+      <c r="F24">
+        <v>31.540854456210901</v>
+      </c>
+      <c r="I24">
+        <v>30.397980857878299</v>
+      </c>
+      <c r="J24">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E25" s="1">
+        <v>32.58979033854753</v>
+      </c>
+      <c r="F25">
+        <v>33.571671720537502</v>
+      </c>
+      <c r="I25">
+        <v>34.479258536288398</v>
+      </c>
+      <c r="J25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E26" s="1">
+        <v>29.200739356813983</v>
+      </c>
+      <c r="F26">
+        <v>32.178674736730699</v>
+      </c>
+      <c r="I26">
+        <v>27.727372199891001</v>
+      </c>
+      <c r="J26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E27" s="1">
+        <v>29.59680009101378</v>
+      </c>
+      <c r="F27">
+        <v>34.250559259999697</v>
+      </c>
+      <c r="I27">
+        <v>31.450090026757898</v>
+      </c>
+      <c r="J27">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E28" s="1">
+        <v>35.113649937961526</v>
+      </c>
+      <c r="F28">
+        <v>36.455845966947301</v>
+      </c>
+      <c r="I28">
+        <v>35.672625431668799</v>
+      </c>
+      <c r="J28">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>